--- a/table_s1.xlsx
+++ b/table_s1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Small_plasmid_Nanopore/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE2A6E-1640-4F47-A283-3920CD8AB91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E78B82D-785D-5542-B4F7-CE4EEB811B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="2740" windowWidth="41160" windowHeight="22840" activeTab="3" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
+    <workbookView xWindow="-6600" yWindow="-25260" windowWidth="31300" windowHeight="19020" xr2:uid="{03D76918-5CA6-BC4B-A785-F8ABEB5E7723}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="5" r:id="rId1"/>
@@ -40,6 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D497819C-01FD-D543-A3B3-54A6C2D32C31}</author>
+    <author>tc={0F82EF9B-2018-3449-9FDD-397D5647740F}</author>
     <author>tc={1BCA6B03-9B93-2745-B715-C3D66DE583A1}</author>
     <author>tc={C6143B54-11E3-5C4E-9BA4-9FFEFA648866}</author>
     <author>tc={A3826E3C-6C70-0D4A-A3AF-5DEFCC665F56}</author>
@@ -56,7 +57,15 @@
     This is the total yield of the run, including reads from all barcodes (even unused ones) and unclassified reads.</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{0F82EF9B-2018-3449-9FDD-397D5647740F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Since not all runs lasted the same time and some involved refueling, this column shows the yield of only the first 12 hours of sequencing.</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="2" shapeId="0" xr:uid="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -64,7 +73,7 @@
     This is the fraction of reads that are chimeras within a single barcode bin. For example, a read which is half from a chromosome and half from a plasmid of the same genome.</t>
       </text>
     </comment>
-    <comment ref="F1" authorId="2" shapeId="0" xr:uid="{C6143B54-11E3-5C4E-9BA4-9FFEFA648866}">
+    <comment ref="I1" authorId="3" shapeId="0" xr:uid="{C6143B54-11E3-5C4E-9BA4-9FFEFA648866}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +81,7 @@
     This is the fraction of reads that are chimeras between different barcode bins. For example, a read which is half from one genome’s chromosome and half from another genome’s chromosome.</t>
       </text>
     </comment>
-    <comment ref="G1" authorId="3" shapeId="0" xr:uid="{A3826E3C-6C70-0D4A-A3AF-5DEFCC665F56}">
+    <comment ref="J1" authorId="4" shapeId="0" xr:uid="{A3826E3C-6C70-0D4A-A3AF-5DEFCC665F56}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -80,7 +89,7 @@
     This is the fraction of reads that are chimeras of any type (within or between barcode bins). It is the sum of the previous two columns.</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="4" shapeId="0" xr:uid="{733D43A7-A4B6-2D45-A510-82619A44918B}">
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{733D43A7-A4B6-2D45-A510-82619A44918B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +97,7 @@
     This is the fraction of reads which were incorrectly demultiplexed to an unused barcode bin. For example, a read which actually belongs in barcode bin 1 but was demultiplexed into barcode bin 12 (not used in these sequencing runs).</t>
       </text>
     </comment>
-    <comment ref="J1" authorId="5" shapeId="0" xr:uid="{EF149608-6506-1547-AD42-7EEBEC7D3D09}">
+    <comment ref="M1" authorId="6" shapeId="0" xr:uid="{EF149608-6506-1547-AD42-7EEBEC7D3D09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +105,7 @@
     This is the fraction of reads which were incorrectly demultiplexed to a used barcode bin. For example, a read which actually belongs in barcode bin 1 but was demultiplexed into barcode bin 2 (which corresponds to a different genome).</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="6" shapeId="0" xr:uid="{D0B74476-9813-1148-AF46-48D3F09E0C64}">
+    <comment ref="N1" authorId="7" shapeId="0" xr:uid="{D0B74476-9813-1148-AF46-48D3F09E0C64}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="77">
   <si>
     <t>Genome</t>
   </si>
@@ -382,9 +391,6 @@
   </si>
   <si>
     <t>Total yield (bp)</t>
-  </si>
-  <si>
-    <t>N50 (bp)</t>
   </si>
   <si>
     <t>Ligation (run 1)</t>
@@ -434,99 +440,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Per-barcode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet contains per-barcode read stats for the ONT sequencing runs. The demultiplexing was performed by Guppy when basecalling.</t>
-    </r>
-  </si>
-  <si>
     <t>Haemophilus MSB1_2C plasmid_4 and Haemophilus MSB1_2C plasmid_5 were only present in the second technical replicate for this genome.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Per-replicon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet contains depth values for each replicon in the genomes, as determined by the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>get_depths.py</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> script. For each genome and read set, depths were normalised to the chromosomal depth, and the resulting 'normalised to chromosome' columns were the ones used to generate Figure 1. Some of the replicons were excluded for reasons described in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worksheet.</t>
-    </r>
   </si>
   <si>
     <t>Rapid (run 1) read count</t>
@@ -678,16 +592,145 @@
       <t xml:space="preserve"> MSB1_2C plasmid_3 had identical sequences and it was therefore impossible to tell whether a read originated from one or the other. Read depths are therefore not available for these plasmids.</t>
     </r>
   </si>
+  <si>
+    <t>Yield after 12 hours (bp)</t>
+  </si>
+  <si>
+    <t>N50 read length (bp)</t>
+  </si>
+  <si>
+    <t>Refueling</t>
+  </si>
+  <si>
+    <t>at 18 hours</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Total run time (hours)</t>
+  </si>
+  <si>
+    <t>Illumina (run 2) read count</t>
+  </si>
+  <si>
+    <t>Illumina (run 2) read N50</t>
+  </si>
+  <si>
+    <t>Illumina (run 1) read count</t>
+  </si>
+  <si>
+    <t>Illumina (run 1) read N50</t>
+  </si>
+  <si>
+    <t>Illumina (run 1) read bases</t>
+  </si>
+  <si>
+    <t>Illumina (run 2) read bases</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Per-barcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains per-barcode read stats for the sequencing runs. ONT sequence runs were dedicated to this study, so all barcodes are shown, including unused and unclassified. Illumina sequencing runs were shared with other studies and thus only the relevant barcodes are shown. ONT demultiplexing was performed by Guppy when basecalling.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Per-replicon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet contains depth values for each replicon in the genomes, as determined by the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>get_depths.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> script. For each genome and read set, depths were normalised to the chromosomal depth, and the resulting 'normalised to chromosome' columns were the ones used to generate Figure 2. Some of the replicons were excluded for reasons described in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -738,15 +781,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -856,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1116,9 +1150,34 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,22 +1507,25 @@
   <threadedComment ref="B1" dT="2020-10-02T00:47:03.11" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{D497819C-01FD-D543-A3B3-54A6C2D32C31}">
     <text>This is the total yield of the run, including reads from all barcodes (even unused ones) and unclassified reads.</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2020-10-02T00:41:34.42" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
+  <threadedComment ref="C1" dT="2020-10-08T23:17:29.04" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{0F82EF9B-2018-3449-9FDD-397D5647740F}">
+    <text>Since not all runs lasted the same time and some involved refueling, this column shows the yield of only the first 12 hours of sequencing.</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2020-10-02T00:41:34.42" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{1BCA6B03-9B93-2745-B715-C3D66DE583A1}">
     <text>This is the fraction of reads that are chimeras within a single barcode bin. For example, a read which is half from a chromosome and half from a plasmid of the same genome.</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2020-10-02T00:42:24.42" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{C6143B54-11E3-5C4E-9BA4-9FFEFA648866}">
+  <threadedComment ref="I1" dT="2020-10-02T00:42:24.42" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{C6143B54-11E3-5C4E-9BA4-9FFEFA648866}">
     <text>This is the fraction of reads that are chimeras between different barcode bins. For example, a read which is half from one genome’s chromosome and half from another genome’s chromosome.</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2020-10-02T00:43:06.94" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{A3826E3C-6C70-0D4A-A3AF-5DEFCC665F56}">
+  <threadedComment ref="J1" dT="2020-10-02T00:43:06.94" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{A3826E3C-6C70-0D4A-A3AF-5DEFCC665F56}">
     <text>This is the fraction of reads that are chimeras of any type (within or between barcode bins). It is the sum of the previous two columns.</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2020-10-02T00:44:41.80" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{733D43A7-A4B6-2D45-A510-82619A44918B}">
+  <threadedComment ref="L1" dT="2020-10-02T00:44:41.80" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{733D43A7-A4B6-2D45-A510-82619A44918B}">
     <text>This is the fraction of reads which were incorrectly demultiplexed to an unused barcode bin. For example, a read which actually belongs in barcode bin 1 but was demultiplexed into barcode bin 12 (not used in these sequencing runs).</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2020-10-02T00:45:18.25" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{EF149608-6506-1547-AD42-7EEBEC7D3D09}">
+  <threadedComment ref="M1" dT="2020-10-02T00:45:18.25" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{EF149608-6506-1547-AD42-7EEBEC7D3D09}">
     <text>This is the fraction of reads which were incorrectly demultiplexed to a used barcode bin. For example, a read which actually belongs in barcode bin 1 but was demultiplexed into barcode bin 2 (which corresponds to a different genome).</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2020-10-02T00:45:49.22" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{D0B74476-9813-1148-AF46-48D3F09E0C64}">
+  <threadedComment ref="N1" dT="2020-10-02T00:45:49.22" personId="{ECA94A02-CA93-664F-B733-A1DC520C84D0}" id="{D0B74476-9813-1148-AF46-48D3F09E0C64}">
     <text>This is the fraction of reads which were incorrectly demultiplexed in nany way (either to a used or an unused barcode bin). It is the sum of the previous two columns.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1482,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0DFF7C-C846-D14B-915D-C0573D580EBA}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1491,17 +1553,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="88" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="110" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="134" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1511,22 +1573,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C92193-35B9-3A40-83F7-DC2140E6D606}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="74" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="31" customWidth="1"/>
-    <col min="9" max="11" width="13.1640625" style="31" customWidth="1"/>
+    <col min="2" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="142" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="1.6640625" style="74" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" style="31" customWidth="1"/>
+    <col min="12" max="14" width="13.1640625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="30" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
@@ -1534,150 +1597,195 @@
         <v>37</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="137" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="92" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
-        <v>39</v>
       </c>
       <c r="B2" s="93">
         <v>15216230865</v>
       </c>
       <c r="C2" s="93">
+        <v>4850016274</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="138">
+        <v>71.976050000000001</v>
+      </c>
+      <c r="F2" s="93">
         <v>8161</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95">
+      <c r="G2" s="94"/>
+      <c r="H2" s="95">
         <v>4.4734140000000002E-3</v>
       </c>
-      <c r="F2" s="95">
+      <c r="I2" s="95">
         <v>9.7303830000000004E-3</v>
       </c>
-      <c r="G2" s="95">
+      <c r="J2" s="95">
         <v>1.4080479999999999E-2</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95">
+      <c r="K2" s="95"/>
+      <c r="L2" s="95">
         <v>6.6381580000000004E-6</v>
       </c>
-      <c r="J2" s="95">
+      <c r="M2" s="95">
         <v>2.2154E-2</v>
       </c>
-      <c r="K2" s="95">
+      <c r="N2" s="95">
         <v>2.2160639999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="101">
         <v>8029266526</v>
       </c>
       <c r="C3" s="101">
+        <v>4710579925</v>
+      </c>
+      <c r="D3" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="139">
+        <v>23.398420000000002</v>
+      </c>
+      <c r="F3" s="101">
         <v>20880</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103">
+      <c r="G3" s="102"/>
+      <c r="H3" s="103">
         <v>6.1047330000000002E-3</v>
       </c>
-      <c r="F3" s="103">
+      <c r="I3" s="103">
         <v>2.8815329999999999E-3</v>
       </c>
-      <c r="G3" s="103">
+      <c r="J3" s="103">
         <v>8.7639769999999992E-3</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103">
+      <c r="K3" s="103"/>
+      <c r="L3" s="103">
         <v>6.252016E-6</v>
       </c>
-      <c r="J3" s="103">
+      <c r="M3" s="103">
         <v>2.9251929999999999E-2</v>
       </c>
-      <c r="K3" s="103">
+      <c r="N3" s="103">
         <v>2.925819E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="97">
         <v>4323314688</v>
       </c>
       <c r="C4" s="97">
+        <v>2511583902</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="140">
+        <v>71.974819999999994</v>
+      </c>
+      <c r="F4" s="97">
         <v>11874</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99">
+      <c r="G4" s="98"/>
+      <c r="H4" s="99">
         <v>1.5235920000000001E-4</v>
       </c>
-      <c r="F4" s="99">
+      <c r="I4" s="99">
         <v>2.3052620000000001E-4</v>
       </c>
-      <c r="G4" s="99">
+      <c r="J4" s="99">
         <v>3.4446439999999997E-4</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99">
+      <c r="K4" s="99"/>
+      <c r="L4" s="99">
         <v>5.6571279999999995E-4</v>
       </c>
-      <c r="J4" s="99">
+      <c r="M4" s="99">
         <v>3.3300320000000001E-3</v>
       </c>
-      <c r="K4" s="99">
+      <c r="N4" s="99">
         <v>3.8957449999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="105">
         <v>9594730471</v>
       </c>
       <c r="C5" s="105">
+        <v>6016454988</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="141">
+        <v>20.429400000000001</v>
+      </c>
+      <c r="F5" s="105">
         <v>12672</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107">
+      <c r="G5" s="106"/>
+      <c r="H5" s="107">
         <v>2.6588410000000001E-4</v>
       </c>
-      <c r="F5" s="107">
+      <c r="I5" s="107">
         <v>1.1255519999999999E-3</v>
       </c>
-      <c r="G5" s="107">
+      <c r="J5" s="107">
         <v>1.3550820000000001E-3</v>
       </c>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107">
+      <c r="K5" s="107"/>
+      <c r="L5" s="107">
         <v>5.8573369999999998E-4</v>
       </c>
-      <c r="J5" s="107">
+      <c r="M5" s="107">
         <v>3.8229289999999999E-2</v>
       </c>
-      <c r="K5" s="107">
+      <c r="N5" s="107">
         <v>3.881503E-2</v>
       </c>
     </row>
@@ -1689,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45BD62-7DEE-0740-97DB-27A0DE7F03FC}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1706,17 +1814,25 @@
     <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" customWidth="1"/>
     <col min="17" max="17" width="9.83203125" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
     <col min="19" max="19" width="9.1640625" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" customWidth="1"/>
+    <col min="24" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
+    <col min="26" max="26" width="14" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="16" customFormat="1" ht="81" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1728,46 +1844,66 @@
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="29" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="V1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="W1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
@@ -1797,28 +1933,48 @@
       <c r="K2" s="17">
         <v>14690</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="19">
+      <c r="L2" s="58"/>
+      <c r="M2" s="17">
+        <v>6230452</v>
+      </c>
+      <c r="N2" s="17">
+        <v>909812368</v>
+      </c>
+      <c r="O2" s="17">
+        <v>149</v>
+      </c>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="19">
         <v>101526</v>
       </c>
-      <c r="N2" s="19">
+      <c r="R2" s="19">
         <v>780286224</v>
       </c>
-      <c r="O2" s="19">
+      <c r="S2" s="19">
         <v>14351</v>
       </c>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="17">
+      <c r="T2" s="58"/>
+      <c r="U2" s="17">
         <v>85484</v>
       </c>
-      <c r="R2" s="17">
+      <c r="V2" s="17">
         <v>1070356827</v>
       </c>
-      <c r="S2" s="17">
+      <c r="W2" s="17">
         <v>21638</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X2" s="58"/>
+      <c r="Y2" s="17">
+        <v>2567726</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>374270613</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -1848,28 +2004,48 @@
       <c r="K3" s="26">
         <v>14317</v>
       </c>
-      <c r="L3" s="59"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="26">
+        <v>4568600</v>
+      </c>
+      <c r="N3" s="26">
+        <v>665796833</v>
+      </c>
+      <c r="O3" s="26">
+        <v>149</v>
+      </c>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="26">
         <v>213402</v>
       </c>
-      <c r="N3" s="26">
+      <c r="R3" s="26">
         <v>1666038163</v>
       </c>
-      <c r="O3" s="26">
+      <c r="S3" s="26">
         <v>14142</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26">
+      <c r="T3" s="26"/>
+      <c r="U3" s="26">
         <v>139899</v>
       </c>
-      <c r="R3" s="26">
+      <c r="V3" s="26">
         <v>1009600962</v>
       </c>
-      <c r="S3" s="26">
+      <c r="W3" s="26">
         <v>18781</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26">
+        <v>3197176</v>
+      </c>
+      <c r="Z3" s="26">
+        <v>465696973</v>
+      </c>
+      <c r="AA3" s="26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
@@ -1899,28 +2075,48 @@
       <c r="K4" s="17">
         <v>13822</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="17">
+        <v>4093734</v>
+      </c>
+      <c r="N4" s="17">
+        <v>597763512</v>
+      </c>
+      <c r="O4" s="17">
+        <v>149</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="17">
         <v>128031</v>
       </c>
-      <c r="N4" s="17">
+      <c r="R4" s="17">
         <v>987293009</v>
       </c>
-      <c r="O4" s="17">
+      <c r="S4" s="17">
         <v>15407</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="T4" s="17"/>
+      <c r="U4" s="17">
         <v>45191</v>
       </c>
-      <c r="R4" s="17">
+      <c r="V4" s="17">
         <v>625579715</v>
       </c>
-      <c r="S4" s="17">
+      <c r="W4" s="17">
         <v>21856</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17">
+        <v>3204176</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>468643117</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
@@ -1950,28 +2146,48 @@
       <c r="K5" s="26">
         <v>1787</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="26">
+        <v>3966996</v>
+      </c>
+      <c r="N5" s="26">
+        <v>580386835</v>
+      </c>
+      <c r="O5" s="26">
+        <v>149</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="26">
         <v>271823</v>
       </c>
-      <c r="N5" s="26">
+      <c r="R5" s="26">
         <v>1704343789</v>
       </c>
-      <c r="O5" s="26">
+      <c r="S5" s="26">
         <v>10276</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26">
         <v>220304</v>
       </c>
-      <c r="R5" s="26">
+      <c r="V5" s="26">
         <v>1342021782</v>
       </c>
-      <c r="S5" s="26">
+      <c r="W5" s="26">
         <v>16260</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26">
+        <v>3161842</v>
+      </c>
+      <c r="Z5" s="26">
+        <v>458852690</v>
+      </c>
+      <c r="AA5" s="26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>14</v>
       </c>
@@ -2001,28 +2217,48 @@
       <c r="K6" s="40">
         <v>12503</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="40">
+        <v>7275366</v>
+      </c>
+      <c r="N6" s="40">
+        <v>1061505047</v>
+      </c>
+      <c r="O6" s="40">
+        <v>149</v>
+      </c>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40">
         <v>105226</v>
       </c>
-      <c r="N6" s="40">
+      <c r="R6" s="40">
         <v>808961843</v>
       </c>
-      <c r="O6" s="40">
+      <c r="S6" s="40">
         <v>14406</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40">
+      <c r="T6" s="40"/>
+      <c r="U6" s="40">
         <v>36750</v>
       </c>
-      <c r="R6" s="40">
+      <c r="V6" s="40">
         <v>483128849</v>
       </c>
-      <c r="S6" s="40">
+      <c r="W6" s="40">
         <v>24765</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40">
+        <v>2933558</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>425539365</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="124"/>
       <c r="B7" s="125"/>
       <c r="C7" s="126">
@@ -2048,28 +2284,36 @@
       <c r="K7" s="125">
         <v>41887</v>
       </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="125">
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="125">
         <v>233</v>
       </c>
-      <c r="N7" s="125">
+      <c r="R7" s="125">
         <v>1465473</v>
       </c>
-      <c r="O7" s="125">
+      <c r="S7" s="125">
         <v>12599</v>
       </c>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125">
+      <c r="T7" s="125"/>
+      <c r="U7" s="125">
         <v>3</v>
       </c>
-      <c r="R7" s="125">
+      <c r="V7" s="125">
         <v>52449</v>
       </c>
-      <c r="S7" s="125">
+      <c r="W7" s="125">
         <v>44607</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -2099,28 +2343,48 @@
       <c r="K8" s="26">
         <v>12829</v>
       </c>
-      <c r="L8" s="20"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="26">
+        <v>3333156</v>
+      </c>
+      <c r="N8" s="26">
+        <v>484586353</v>
+      </c>
+      <c r="O8" s="26">
+        <v>149</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="26">
         <v>132640</v>
       </c>
-      <c r="N8" s="26">
+      <c r="R8" s="26">
         <v>998133789</v>
       </c>
-      <c r="O8" s="26">
+      <c r="S8" s="26">
         <v>14587</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26">
+      <c r="T8" s="26"/>
+      <c r="U8" s="26">
         <v>167862</v>
       </c>
-      <c r="R8" s="26">
+      <c r="V8" s="26">
         <v>1452069004</v>
       </c>
-      <c r="S8" s="26">
+      <c r="W8" s="26">
         <v>25814</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26">
+        <v>3318244</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>482191712</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>19</v>
       </c>
@@ -2150,28 +2414,48 @@
       <c r="K9" s="40">
         <v>1764</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="40">
+        <v>3171788</v>
+      </c>
+      <c r="N9" s="40">
+        <v>464186415</v>
+      </c>
+      <c r="O9" s="40">
+        <v>149</v>
+      </c>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40">
         <v>138974</v>
       </c>
-      <c r="N9" s="40">
+      <c r="R9" s="40">
         <v>699122054</v>
       </c>
-      <c r="O9" s="40">
+      <c r="S9" s="40">
         <v>9898</v>
       </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40">
+      <c r="T9" s="40"/>
+      <c r="U9" s="40">
         <v>139058</v>
       </c>
-      <c r="R9" s="40">
+      <c r="V9" s="40">
         <v>1091695992</v>
       </c>
-      <c r="S9" s="40">
+      <c r="W9" s="40">
         <v>20731</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40">
+        <v>2134582</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>313183764</v>
+      </c>
+      <c r="AA9" s="40">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="124"/>
       <c r="B10" s="125"/>
       <c r="C10" s="126">
@@ -2197,26 +2481,34 @@
       <c r="K10" s="125">
         <v>1185</v>
       </c>
-      <c r="L10" s="126"/>
-      <c r="M10" s="125">
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="125">
         <v>214</v>
       </c>
-      <c r="N10" s="125">
+      <c r="R10" s="125">
         <v>1492685</v>
       </c>
-      <c r="O10" s="125">
+      <c r="S10" s="125">
         <v>16563</v>
       </c>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125">
+      <c r="T10" s="125"/>
+      <c r="U10" s="125">
         <v>0</v>
       </c>
-      <c r="R10" s="125">
+      <c r="V10" s="125">
         <v>0</v>
       </c>
-      <c r="S10" s="125"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="127"/>
       <c r="B11" s="128"/>
       <c r="C11" s="129">
@@ -2242,28 +2534,36 @@
       <c r="K11" s="128">
         <v>1295</v>
       </c>
-      <c r="L11" s="129"/>
-      <c r="M11" s="128">
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="128"/>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="128">
         <v>70</v>
       </c>
-      <c r="N11" s="128">
+      <c r="R11" s="128">
         <v>505305</v>
       </c>
-      <c r="O11" s="128">
+      <c r="S11" s="128">
         <v>11547</v>
       </c>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128">
-        <v>1</v>
-      </c>
-      <c r="R11" s="128">
+      <c r="T11" s="128"/>
+      <c r="U11" s="128">
+        <v>1</v>
+      </c>
+      <c r="V11" s="128">
         <v>21762</v>
       </c>
-      <c r="S11" s="128">
+      <c r="W11" s="128">
         <v>21762</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="127"/>
       <c r="B12" s="128"/>
       <c r="C12" s="129">
@@ -2289,28 +2589,36 @@
       <c r="K12" s="128">
         <v>51501</v>
       </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="128">
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="128">
         <v>81</v>
       </c>
-      <c r="N12" s="128">
+      <c r="R12" s="128">
         <v>528081</v>
       </c>
-      <c r="O12" s="128">
+      <c r="S12" s="128">
         <v>14143</v>
       </c>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128">
+      <c r="T12" s="128"/>
+      <c r="U12" s="128">
         <v>2</v>
       </c>
-      <c r="R12" s="128">
+      <c r="V12" s="128">
         <v>4137</v>
       </c>
-      <c r="S12" s="128">
+      <c r="W12" s="128">
         <v>3861</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="127"/>
       <c r="B13" s="128"/>
       <c r="C13" s="129">
@@ -2336,26 +2644,34 @@
       <c r="K13" s="128">
         <v>4731</v>
       </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="128">
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="128">
         <v>39</v>
       </c>
-      <c r="N13" s="128">
+      <c r="R13" s="128">
         <v>309173</v>
       </c>
-      <c r="O13" s="128">
+      <c r="S13" s="128">
         <v>15373</v>
       </c>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128">
+      <c r="T13" s="128"/>
+      <c r="U13" s="128">
         <v>0</v>
       </c>
-      <c r="R13" s="128">
+      <c r="V13" s="128">
         <v>0</v>
       </c>
-      <c r="S13" s="128"/>
-    </row>
-    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+    </row>
+    <row r="14" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="130"/>
       <c r="B14" s="131"/>
       <c r="C14" s="132" t="s">
@@ -2381,26 +2697,34 @@
       <c r="K14" s="131">
         <v>5872</v>
       </c>
-      <c r="L14" s="132"/>
-      <c r="M14" s="131">
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="131">
         <v>310608</v>
       </c>
-      <c r="N14" s="131">
+      <c r="R14" s="131">
         <v>1946250883</v>
       </c>
-      <c r="O14" s="131">
+      <c r="S14" s="131">
         <v>12071</v>
       </c>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131">
+      <c r="T14" s="131"/>
+      <c r="U14" s="131">
         <v>137151</v>
       </c>
-      <c r="R14" s="131">
+      <c r="V14" s="131">
         <v>954735047</v>
       </c>
-      <c r="S14" s="131">
+      <c r="W14" s="131">
         <v>18494</v>
       </c>
+      <c r="X14" s="131"/>
+      <c r="Y14" s="131"/>
+      <c r="Z14" s="131"/>
+      <c r="AA14" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,9 +2735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570156CC-B0EE-794C-A697-7E52448428D9}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2434,7 +2758,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="32" customFormat="1" ht="182" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -2475,7 +2799,7 @@
       </c>
       <c r="P1" s="34"/>
       <c r="Q1" s="79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3191,17 +3515,17 @@
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="111"/>
       <c r="K17" s="110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L17" s="110"/>
       <c r="M17" s="111"/>
       <c r="N17" s="110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O17" s="110"/>
       <c r="P17" s="60"/>
@@ -3446,17 +3770,17 @@
       </c>
       <c r="G23" s="51"/>
       <c r="H23" s="117" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I23" s="117"/>
       <c r="J23" s="118"/>
       <c r="K23" s="117" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L23" s="117"/>
       <c r="M23" s="118"/>
       <c r="N23" s="117" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O23" s="117"/>
       <c r="P23" s="71"/>
@@ -4731,17 +5055,17 @@
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I51" s="115"/>
       <c r="J51" s="116"/>
       <c r="K51" s="115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L51" s="115"/>
       <c r="M51" s="116"/>
       <c r="N51" s="115" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O51" s="115"/>
       <c r="P51" s="73"/>
@@ -5000,17 +5324,17 @@
       </c>
       <c r="G57" s="54"/>
       <c r="H57" s="113" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I57" s="113"/>
       <c r="J57" s="114"/>
       <c r="K57" s="113" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L57" s="113"/>
       <c r="M57" s="114"/>
       <c r="N57" s="113" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O57" s="113"/>
       <c r="P57" s="72"/>
@@ -5583,7 +5907,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5594,10 +5918,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="109" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -5605,7 +5929,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -5613,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
@@ -5621,7 +5945,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="121" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5953,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
